--- a/raw/jhu.edu/data.xlsx
+++ b/raw/jhu.edu/data.xlsx
@@ -41,10 +41,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="97">
   <si>
-    <t>New Google Sheet Link (support comments): https://docs.google.com/spreadsheets/d/1wQVypefm946ch4XDp37uZ-wartW4V7ILdg-qYiDXUHM/edit?usp=sharing</t>
+    <t>Province/State</t>
   </si>
   <si>
-    <t>Province/State</t>
+    <t>New Google Sheet Link (support comments): https://docs.google.com/spreadsheets/d/1wQVypefm946ch4XDp37uZ-wartW4V7ILdg-qYiDXUHM/edit?usp=sharing</t>
   </si>
   <si>
     <t>Time series google sheet: https://docs.google.com/spreadsheets/d/1UF2pSkFTURko2OvfHWWlFpDFAr1UxCBA4JLwlSP6KFo/edit?usp=sharing</t>
@@ -305,10 +305,19 @@
     <t>Suspected</t>
   </si>
   <si>
+    <t>Chicago</t>
+  </si>
+  <si>
     <t>Demised</t>
   </si>
   <si>
-    <t>Chicago</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Date last updated</t>
   </si>
   <si>
     <t>Mexico</t>
@@ -318,15 +327,6 @@
   </si>
   <si>
     <t>Colombia</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Date last updated</t>
   </si>
   <si>
     <t>United States</t>
@@ -399,11 +399,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -411,7 +411,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -424,6 +423,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -791,7 +791,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -816,7 +816,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D2" s="2">
@@ -836,7 +836,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D3" s="2">
@@ -853,7 +853,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D4" s="2">
@@ -870,7 +870,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D5" s="2">
@@ -890,7 +890,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D6" s="2">
@@ -907,7 +907,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D7" s="2">
@@ -924,7 +924,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D8" s="2">
@@ -941,7 +941,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D9" s="2">
@@ -958,7 +958,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D10" s="2">
@@ -975,7 +975,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D11" s="2">
@@ -995,7 +995,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D12" s="2">
@@ -1012,7 +1012,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D13" s="2">
@@ -1032,7 +1032,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D14" s="2">
@@ -1052,7 +1052,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D15" s="2">
@@ -1066,7 +1066,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D16" s="2">
@@ -1083,7 +1083,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D17" s="2">
@@ -1097,7 +1097,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D18" s="2">
@@ -1114,7 +1114,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D19" s="2">
@@ -1128,7 +1128,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D20" s="2">
@@ -1148,7 +1148,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D21" s="2">
@@ -1165,7 +1165,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D22" s="2">
@@ -1182,7 +1182,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D23" s="2">
@@ -1199,7 +1199,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D24" s="2">
@@ -1213,7 +1213,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D25" s="2">
@@ -1227,7 +1227,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D26" s="2">
@@ -1241,7 +1241,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D27" s="2">
@@ -1255,7 +1255,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D28" s="2">
@@ -1272,7 +1272,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D29" s="2">
@@ -1286,7 +1286,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D30" s="2">
@@ -1303,7 +1303,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D31" s="2">
@@ -1317,7 +1317,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D32" s="2">
@@ -1331,7 +1331,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D33" s="2">
@@ -1345,7 +1345,7 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D34" s="2">
@@ -1359,7 +1359,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D35" s="2">
@@ -1373,7 +1373,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D36" s="2">
@@ -1387,7 +1387,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D37" s="2">
@@ -1401,7 +1401,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D38" s="2">
@@ -1415,7 +1415,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D39" s="2">
@@ -1426,7 +1426,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D40" s="2">
@@ -1440,7 +1440,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D41" s="2">
@@ -1454,7 +1454,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D42" s="2">
@@ -1465,7 +1465,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D43" s="2">
@@ -1476,7 +1476,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D44" s="2">
@@ -1487,7 +1487,7 @@
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D45" s="2">
@@ -1498,7 +1498,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D46" s="2">
@@ -1509,7 +1509,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D47" s="2">
@@ -1523,7 +1523,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D48" s="2">
@@ -1537,7 +1537,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D49" s="2">
@@ -1548,7 +1548,7 @@
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D50" s="2">
@@ -1559,7 +1559,7 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D51" s="2">
@@ -1573,7 +1573,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D52" s="2">
@@ -1590,7 +1590,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D53" s="2">
@@ -1604,7 +1604,7 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D54" s="2">
@@ -1618,7 +1618,7 @@
       <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D55" s="2">
@@ -1629,7 +1629,7 @@
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D56" s="2">
@@ -1640,7 +1640,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D57" s="2">
@@ -1651,7 +1651,7 @@
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D58" s="2">
@@ -1662,7 +1662,7 @@
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43860.458333333336</v>
       </c>
       <c r="D59" s="2">
@@ -1686,7 +1686,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1711,7 +1711,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43859.875</v>
       </c>
       <c r="D2" s="2">
@@ -1731,7 +1731,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43859.875</v>
       </c>
       <c r="D3" s="2">
@@ -1748,7 +1748,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43859.875</v>
       </c>
       <c r="D4" s="2">
@@ -1765,7 +1765,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43859.875</v>
       </c>
       <c r="D5" s="2">
@@ -1785,7 +1785,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43859.875</v>
       </c>
       <c r="D6" s="2">
@@ -1799,7 +1799,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43859.875</v>
       </c>
       <c r="D7" s="2">
@@ -1816,7 +1816,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43859.875</v>
       </c>
       <c r="D8" s="2">
@@ -1833,7 +1833,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43859.875</v>
       </c>
       <c r="D9" s="2">
@@ -1850,7 +1850,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43859.875</v>
       </c>
       <c r="D10" s="2">
@@ -1867,7 +1867,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43859.875</v>
       </c>
       <c r="D11" s="2">
@@ -1887,7 +1887,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43859.875</v>
       </c>
       <c r="D12" s="2">
@@ -1904,7 +1904,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43859.875</v>
       </c>
       <c r="D13" s="2">
@@ -1924,7 +1924,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43859.875</v>
       </c>
       <c r="D14" s="2">
@@ -1944,7 +1944,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43859.875</v>
       </c>
       <c r="D15" s="2">
@@ -1958,7 +1958,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43859.875</v>
       </c>
       <c r="D16" s="2">
@@ -1975,7 +1975,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43859.875</v>
       </c>
       <c r="D17" s="2">
@@ -1992,7 +1992,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43859.875</v>
       </c>
       <c r="D18" s="2">
@@ -2006,7 +2006,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43859.875</v>
       </c>
       <c r="D19" s="2">
@@ -2020,7 +2020,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43859.875</v>
       </c>
       <c r="D20" s="2">
@@ -2037,7 +2037,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43859.875</v>
       </c>
       <c r="D21" s="2">
@@ -2054,7 +2054,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43859.875</v>
       </c>
       <c r="D22" s="2">
@@ -2071,7 +2071,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43859.875</v>
       </c>
       <c r="D23" s="2">
@@ -2088,7 +2088,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43859.875</v>
       </c>
       <c r="D24" s="2">
@@ -2102,7 +2102,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43859.875</v>
       </c>
       <c r="D25" s="2">
@@ -2116,7 +2116,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43859.875</v>
       </c>
       <c r="D26" s="2">
@@ -2130,7 +2130,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43859.875</v>
       </c>
       <c r="D27" s="2">
@@ -2147,7 +2147,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43859.875</v>
       </c>
       <c r="D28" s="2">
@@ -2161,7 +2161,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43859.875</v>
       </c>
       <c r="D29" s="2">
@@ -2178,7 +2178,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43859.875</v>
       </c>
       <c r="D30" s="2">
@@ -2192,7 +2192,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43859.875</v>
       </c>
       <c r="D31" s="2">
@@ -2206,7 +2206,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43859.875</v>
       </c>
       <c r="D32" s="2">
@@ -2220,7 +2220,7 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43859.875</v>
       </c>
       <c r="D33" s="2">
@@ -2234,7 +2234,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43859.875</v>
       </c>
       <c r="D34" s="2">
@@ -2248,7 +2248,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43859.875</v>
       </c>
       <c r="D35" s="2">
@@ -2262,7 +2262,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43859.875</v>
       </c>
       <c r="D36" s="2">
@@ -2276,7 +2276,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43859.875</v>
       </c>
       <c r="D37" s="2">
@@ -2290,7 +2290,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43859.875</v>
       </c>
       <c r="D38" s="2">
@@ -2304,7 +2304,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43859.875</v>
       </c>
       <c r="D39" s="2">
@@ -2315,7 +2315,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43859.875</v>
       </c>
       <c r="D40" s="2">
@@ -2329,7 +2329,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43859.875</v>
       </c>
       <c r="D41" s="2">
@@ -2343,7 +2343,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43859.875</v>
       </c>
       <c r="D42" s="2">
@@ -2354,7 +2354,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43859.875</v>
       </c>
       <c r="D43" s="2">
@@ -2365,7 +2365,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43859.875</v>
       </c>
       <c r="D44" s="2">
@@ -2376,7 +2376,7 @@
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43859.875</v>
       </c>
       <c r="D45" s="2">
@@ -2387,7 +2387,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43859.875</v>
       </c>
       <c r="D46" s="2">
@@ -2398,7 +2398,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43859.875</v>
       </c>
       <c r="D47" s="2">
@@ -2412,7 +2412,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43859.875</v>
       </c>
       <c r="D48" s="2">
@@ -2426,7 +2426,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43859.875</v>
       </c>
       <c r="D49" s="2">
@@ -2437,7 +2437,7 @@
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43859.875</v>
       </c>
       <c r="D50" s="2">
@@ -2448,7 +2448,7 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43859.875</v>
       </c>
       <c r="D51" s="2">
@@ -2462,7 +2462,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43859.875</v>
       </c>
       <c r="D52" s="2">
@@ -2476,7 +2476,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43859.875</v>
       </c>
       <c r="D53" s="2">
@@ -2490,7 +2490,7 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43859.875</v>
       </c>
       <c r="D54" s="2">
@@ -2504,7 +2504,7 @@
       <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43859.875</v>
       </c>
       <c r="D55" s="2">
@@ -2515,7 +2515,7 @@
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43859.875</v>
       </c>
       <c r="D56" s="2">
@@ -2526,7 +2526,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43859.875</v>
       </c>
       <c r="D57" s="2">
@@ -2550,7 +2550,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -2575,7 +2575,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D2" s="2">
@@ -2595,7 +2595,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D3" s="2">
@@ -2612,7 +2612,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D4" s="2">
@@ -2629,7 +2629,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D5" s="2">
@@ -2643,7 +2643,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D6" s="2">
@@ -2663,7 +2663,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D7" s="2">
@@ -2680,7 +2680,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D8" s="2">
@@ -2697,7 +2697,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D9" s="2">
@@ -2714,7 +2714,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D10" s="2">
@@ -2734,7 +2734,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D11" s="2">
@@ -2751,7 +2751,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D12" s="2">
@@ -2771,7 +2771,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D13" s="2">
@@ -2788,7 +2788,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D14" s="2">
@@ -2808,7 +2808,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D15" s="2">
@@ -2822,7 +2822,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D16" s="2">
@@ -2839,7 +2839,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D17" s="2">
@@ -2853,7 +2853,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D18" s="2">
@@ -2867,7 +2867,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D19" s="2">
@@ -2884,7 +2884,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D20" s="2">
@@ -2901,7 +2901,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D21" s="2">
@@ -2918,7 +2918,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D22" s="2">
@@ -2935,7 +2935,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D23" s="2">
@@ -2949,7 +2949,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D24" s="2">
@@ -2966,7 +2966,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D25" s="2">
@@ -2980,7 +2980,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D26" s="2">
@@ -2994,7 +2994,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D27" s="2">
@@ -3008,7 +3008,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D28" s="2">
@@ -3022,7 +3022,7 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D29" s="2">
@@ -3036,7 +3036,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D30" s="2">
@@ -3053,7 +3053,7 @@
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D31" s="2">
@@ -3067,7 +3067,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D32" s="2">
@@ -3081,7 +3081,7 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D33" s="2">
@@ -3095,7 +3095,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D34" s="2">
@@ -3109,7 +3109,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D35" s="2">
@@ -3123,7 +3123,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D36" s="2">
@@ -3137,7 +3137,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D37" s="2">
@@ -3151,7 +3151,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D38" s="2">
@@ -3162,7 +3162,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D39" s="2">
@@ -3176,7 +3176,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D40" s="2">
@@ -3190,7 +3190,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D41" s="2">
@@ -3201,7 +3201,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D42" s="2">
@@ -3212,7 +3212,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D43" s="2">
@@ -3223,7 +3223,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D44" s="2">
@@ -3234,7 +3234,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D45" s="2">
@@ -3245,7 +3245,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D46" s="2">
@@ -3259,7 +3259,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D47" s="2">
@@ -3273,7 +3273,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D48" s="2">
@@ -3284,7 +3284,7 @@
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D49" s="2">
@@ -3295,7 +3295,7 @@
       <c r="B50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D50" s="2">
@@ -3309,7 +3309,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D51" s="2">
@@ -3323,7 +3323,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D52" s="2">
@@ -3337,7 +3337,7 @@
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D53" s="2">
@@ -3348,7 +3348,7 @@
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D54" s="2">
@@ -3359,7 +3359,7 @@
       <c r="B55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43859.604166666664</v>
       </c>
       <c r="D55" s="2">
@@ -3383,7 +3383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -3408,7 +3408,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D2" s="2">
@@ -3428,7 +3428,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D3" s="2">
@@ -3445,7 +3445,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D4" s="2">
@@ -3462,7 +3462,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D5" s="2">
@@ -3482,7 +3482,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D6" s="2">
@@ -3496,7 +3496,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D7" s="2">
@@ -3510,7 +3510,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D8" s="2">
@@ -3527,7 +3527,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D9" s="2">
@@ -3547,7 +3547,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D10" s="2">
@@ -3564,7 +3564,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D11" s="2">
@@ -3578,7 +3578,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D12" s="2">
@@ -3592,7 +3592,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D13" s="2">
@@ -3612,7 +3612,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D14" s="2">
@@ -3629,7 +3629,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D15" s="2">
@@ -3646,7 +3646,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D16" s="2">
@@ -3663,7 +3663,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D17" s="2">
@@ -3677,7 +3677,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D18" s="2">
@@ -3697,7 +3697,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D19" s="2">
@@ -3711,7 +3711,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D20" s="2">
@@ -3725,7 +3725,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D21" s="2">
@@ -3739,7 +3739,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D22" s="2">
@@ -3756,7 +3756,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D23" s="2">
@@ -3773,7 +3773,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D24" s="2">
@@ -3787,7 +3787,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D25" s="2">
@@ -3801,7 +3801,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D26" s="2">
@@ -3815,7 +3815,7 @@
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D27" s="2">
@@ -3829,7 +3829,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D28" s="2">
@@ -3843,7 +3843,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D29" s="2">
@@ -3857,7 +3857,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D30" s="2">
@@ -3871,7 +3871,7 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D31" s="2">
@@ -3885,7 +3885,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D32" s="2">
@@ -3899,7 +3899,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D33" s="2">
@@ -3913,7 +3913,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D34" s="2">
@@ -3927,7 +3927,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D35" s="2">
@@ -3941,7 +3941,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D36" s="2">
@@ -3955,7 +3955,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D37" s="2">
@@ -3969,7 +3969,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D38" s="2">
@@ -3983,7 +3983,7 @@
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D39" s="2">
@@ -3994,7 +3994,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D40" s="2">
@@ -4008,7 +4008,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D41" s="2">
@@ -4022,7 +4022,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D42" s="2">
@@ -4033,7 +4033,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D43" s="2">
@@ -4044,7 +4044,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D44" s="2">
@@ -4055,7 +4055,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D45" s="2">
@@ -4066,7 +4066,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D46" s="2">
@@ -4077,7 +4077,7 @@
       <c r="B47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D47" s="2">
@@ -4088,7 +4088,7 @@
       <c r="B48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D48" s="2">
@@ -4102,7 +4102,7 @@
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D49" s="2">
@@ -4116,7 +4116,7 @@
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D50" s="2">
@@ -4127,7 +4127,7 @@
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D51" s="2">
@@ -4138,7 +4138,7 @@
       <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D52" s="2">
@@ -4152,7 +4152,7 @@
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43859.5625</v>
       </c>
       <c r="D53" s="2">
@@ -4176,7 +4176,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4201,7 +4201,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D2" s="2">
@@ -4221,7 +4221,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D3" s="2">
@@ -4238,7 +4238,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D4" s="2">
@@ -4255,7 +4255,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D5" s="2">
@@ -4269,7 +4269,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D6" s="2">
@@ -4289,7 +4289,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D7" s="2">
@@ -4303,7 +4303,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D8" s="2">
@@ -4320,7 +4320,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D9" s="2">
@@ -4334,7 +4334,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D10" s="2">
@@ -4351,7 +4351,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D11" s="2">
@@ -4365,7 +4365,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D12" s="2">
@@ -4382,7 +4382,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D13" s="2">
@@ -4402,7 +4402,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D14" s="2">
@@ -4416,7 +4416,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D15" s="2">
@@ -4436,7 +4436,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D16" s="2">
@@ -4453,7 +4453,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D17" s="2">
@@ -4467,7 +4467,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D18" s="2">
@@ -4484,7 +4484,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D19" s="2">
@@ -4498,7 +4498,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D20" s="2">
@@ -4515,7 +4515,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D21" s="2">
@@ -4532,7 +4532,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D22" s="2">
@@ -4546,7 +4546,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D23" s="2">
@@ -4560,7 +4560,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D24" s="2">
@@ -4574,7 +4574,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D25" s="2">
@@ -4588,7 +4588,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D26" s="2">
@@ -4602,7 +4602,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D27" s="2">
@@ -4616,7 +4616,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D28" s="2">
@@ -4630,7 +4630,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D29" s="2">
@@ -4644,7 +4644,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D30" s="2">
@@ -4658,7 +4658,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D31" s="2">
@@ -4672,7 +4672,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D32" s="2">
@@ -4686,7 +4686,7 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D33" s="2">
@@ -4700,7 +4700,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D34" s="2">
@@ -4714,7 +4714,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43858.75</v>
       </c>
       <c r="D35" s="2">
@@ -4728,7 +4728,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D36" s="2">
@@ -4742,7 +4742,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D37" s="2">
@@ -4756,7 +4756,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D38" s="2">
@@ -4767,7 +4767,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D39" s="2">
@@ -4781,7 +4781,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D40" s="2">
@@ -4795,7 +4795,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D41" s="2">
@@ -4806,7 +4806,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D42" s="2">
@@ -4817,7 +4817,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D43" s="2">
@@ -4828,7 +4828,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D44" s="2">
@@ -4839,7 +4839,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D45" s="2">
@@ -4850,7 +4850,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D46" s="2">
@@ -4864,7 +4864,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D47" s="2">
@@ -4878,7 +4878,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D48" s="2">
@@ -4889,7 +4889,7 @@
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D49" s="2">
@@ -4900,7 +4900,7 @@
       <c r="B50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D50" s="2">
@@ -4914,7 +4914,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D51" s="2">
@@ -4928,7 +4928,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D52" s="2">
@@ -4942,7 +4942,7 @@
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43858.958333333336</v>
       </c>
       <c r="D53" s="2">
@@ -4966,7 +4966,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4991,7 +4991,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43858.75</v>
       </c>
       <c r="D2" s="2">
@@ -5011,7 +5011,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43858.75</v>
       </c>
       <c r="D3" s="2">
@@ -5028,7 +5028,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43858.75</v>
       </c>
       <c r="D4" s="2">
@@ -5045,7 +5045,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43858.75</v>
       </c>
       <c r="D5" s="2">
@@ -5062,7 +5062,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43858.75</v>
       </c>
       <c r="D6" s="2">
@@ -5076,7 +5076,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43858.75</v>
       </c>
       <c r="D7" s="2">
@@ -5090,7 +5090,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43858.75</v>
       </c>
       <c r="D8" s="2">
@@ -5107,7 +5107,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43858.75</v>
       </c>
       <c r="D9" s="2">
@@ -5121,7 +5121,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43858.75</v>
       </c>
       <c r="D10" s="2">
@@ -5135,7 +5135,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43858.75</v>
       </c>
       <c r="D11" s="2">
@@ -5155,7 +5155,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43858.75</v>
       </c>
       <c r="D12" s="2">
@@ -5169,7 +5169,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43858.75</v>
       </c>
       <c r="D13" s="2">
@@ -5183,7 +5183,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43858.75</v>
       </c>
       <c r="D14" s="2">
@@ -5200,7 +5200,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43858.75</v>
       </c>
       <c r="D15" s="2">
@@ -5220,7 +5220,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43858.75</v>
       </c>
       <c r="D16" s="2">
@@ -5237,7 +5237,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43858.75</v>
       </c>
       <c r="D17" s="2">
@@ -5251,7 +5251,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43858.75</v>
       </c>
       <c r="D18" s="2">
@@ -5265,7 +5265,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43858.75</v>
       </c>
       <c r="D19" s="2">
@@ -5282,7 +5282,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43858.75</v>
       </c>
       <c r="D20" s="2">
@@ -5296,7 +5296,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43858.75</v>
       </c>
       <c r="D21" s="2">
@@ -5313,7 +5313,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43858.75</v>
       </c>
       <c r="D22" s="2">
@@ -5330,7 +5330,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43858.75</v>
       </c>
       <c r="D23" s="2">
@@ -5344,7 +5344,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43858.75</v>
       </c>
       <c r="D24" s="2">
@@ -5358,7 +5358,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43858.75</v>
       </c>
       <c r="D25" s="2">
@@ -5372,7 +5372,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43858.75</v>
       </c>
       <c r="D26" s="2">
@@ -5386,7 +5386,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43858.75</v>
       </c>
       <c r="D27" s="2">
@@ -5400,7 +5400,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43858.75</v>
       </c>
       <c r="D28" s="2">
@@ -5414,7 +5414,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43858.75</v>
       </c>
       <c r="D29" s="2">
@@ -5428,7 +5428,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43858.75</v>
       </c>
       <c r="D30" s="2">
@@ -5442,7 +5442,7 @@
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43858.75</v>
       </c>
       <c r="D31" s="2">
@@ -5456,7 +5456,7 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43858.75</v>
       </c>
       <c r="D32" s="2">
@@ -5470,7 +5470,7 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43858.75</v>
       </c>
       <c r="D33" s="2">
@@ -5484,7 +5484,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43858.75</v>
       </c>
       <c r="D34" s="2">
@@ -5498,7 +5498,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43858.75</v>
       </c>
       <c r="D35" s="2">
@@ -5512,7 +5512,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43858.75</v>
       </c>
       <c r="D36" s="2">
@@ -5526,7 +5526,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43858.75</v>
       </c>
       <c r="D37" s="2">
@@ -5540,7 +5540,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43858.75</v>
       </c>
       <c r="D38" s="2">
@@ -5551,7 +5551,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43858.75</v>
       </c>
       <c r="D39" s="2">
@@ -5565,7 +5565,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43858.75</v>
       </c>
       <c r="D40" s="2">
@@ -5579,7 +5579,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43858.75</v>
       </c>
       <c r="D41" s="2">
@@ -5590,7 +5590,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43858.75</v>
       </c>
       <c r="D42" s="2">
@@ -5601,7 +5601,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43858.75</v>
       </c>
       <c r="D43" s="2">
@@ -5612,7 +5612,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43858.75</v>
       </c>
       <c r="D44" s="2">
@@ -5623,7 +5623,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43858.75</v>
       </c>
       <c r="D45" s="2">
@@ -5634,7 +5634,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43858.75</v>
       </c>
       <c r="D46" s="2">
@@ -5648,7 +5648,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43858.75</v>
       </c>
       <c r="D47" s="2">
@@ -5662,7 +5662,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43858.75</v>
       </c>
       <c r="D48" s="2">
@@ -5673,7 +5673,7 @@
       <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43858.75</v>
       </c>
       <c r="D49" s="2">
@@ -5684,7 +5684,7 @@
       <c r="B50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43858.75</v>
       </c>
       <c r="D50" s="2">
@@ -5698,7 +5698,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43858.75</v>
       </c>
       <c r="D51" s="2">
@@ -5712,7 +5712,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43858.75</v>
       </c>
       <c r="D52" s="2">
@@ -5726,7 +5726,7 @@
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43858.75</v>
       </c>
       <c r="D53" s="2">
@@ -5750,7 +5750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -5775,7 +5775,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D2" s="2">
@@ -5795,7 +5795,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D3" s="2">
@@ -5812,7 +5812,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D4" s="2">
@@ -5829,7 +5829,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D5" s="2">
@@ -5846,7 +5846,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D6" s="2">
@@ -5860,7 +5860,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D7" s="2">
@@ -5874,7 +5874,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D8" s="2">
@@ -5888,7 +5888,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D9" s="2">
@@ -5902,7 +5902,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D10" s="2">
@@ -5922,7 +5922,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D11" s="2">
@@ -5936,7 +5936,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D12" s="2">
@@ -5950,7 +5950,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D13" s="2">
@@ -5967,7 +5967,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D14" s="2">
@@ -5984,7 +5984,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D15" s="2">
@@ -6004,7 +6004,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D16" s="2">
@@ -6021,7 +6021,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D17" s="2">
@@ -6035,7 +6035,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D18" s="2">
@@ -6049,7 +6049,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D19" s="2">
@@ -6066,7 +6066,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D20" s="2">
@@ -6080,7 +6080,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D21" s="2">
@@ -6097,7 +6097,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D22" s="2">
@@ -6114,7 +6114,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D23" s="2">
@@ -6128,7 +6128,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D24" s="2">
@@ -6142,7 +6142,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D25" s="2">
@@ -6156,7 +6156,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D26" s="2">
@@ -6170,7 +6170,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D27" s="2">
@@ -6184,7 +6184,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D28" s="2">
@@ -6198,7 +6198,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D29" s="2">
@@ -6212,7 +6212,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D30" s="2">
@@ -6226,7 +6226,7 @@
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D31" s="2">
@@ -6240,7 +6240,7 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D32" s="2">
@@ -6254,7 +6254,7 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D33" s="2">
@@ -6268,7 +6268,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D34" s="2">
@@ -6282,7 +6282,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D35" s="2">
@@ -6296,7 +6296,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D36" s="2">
@@ -6310,7 +6310,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D37" s="2">
@@ -6324,7 +6324,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D38" s="2">
@@ -6335,7 +6335,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D39" s="2">
@@ -6349,7 +6349,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D40" s="2">
@@ -6363,7 +6363,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D41" s="2">
@@ -6374,7 +6374,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D42" s="2">
@@ -6385,7 +6385,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D43" s="2">
@@ -6396,7 +6396,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D44" s="2">
@@ -6407,7 +6407,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D45" s="2">
@@ -6418,7 +6418,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D46" s="2">
@@ -6432,7 +6432,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D47" s="2">
@@ -6443,7 +6443,7 @@
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D48" s="2">
@@ -6454,7 +6454,7 @@
       <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D49" s="2">
@@ -6468,7 +6468,7 @@
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D50" s="2">
@@ -6482,7 +6482,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D51" s="2">
@@ -6496,7 +6496,7 @@
       <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43858.541666666664</v>
       </c>
       <c r="D52" s="2">
@@ -6520,7 +6520,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -6545,7 +6545,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D2" s="2">
@@ -6565,7 +6565,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D3" s="2">
@@ -6582,7 +6582,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D4" s="2">
@@ -6599,7 +6599,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D5" s="2">
@@ -6616,7 +6616,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D6" s="2">
@@ -6630,7 +6630,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D7" s="2">
@@ -6644,7 +6644,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D8" s="2">
@@ -6658,7 +6658,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D9" s="2">
@@ -6672,7 +6672,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D10" s="2">
@@ -6689,7 +6689,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D11" s="2">
@@ -6709,7 +6709,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D12" s="2">
@@ -6726,7 +6726,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D13" s="2">
@@ -6743,7 +6743,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D14" s="2">
@@ -6763,7 +6763,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D15" s="2">
@@ -6777,7 +6777,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D16" s="2">
@@ -6791,7 +6791,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D17" s="2">
@@ -6805,7 +6805,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D18" s="2">
@@ -6822,7 +6822,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D19" s="2">
@@ -6839,7 +6839,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D20" s="2">
@@ -6856,7 +6856,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D21" s="2">
@@ -6870,7 +6870,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D22" s="2">
@@ -6884,7 +6884,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D23" s="2">
@@ -6898,7 +6898,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D24" s="2">
@@ -6912,7 +6912,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D25" s="2">
@@ -6926,7 +6926,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D26" s="2">
@@ -6940,7 +6940,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D27" s="2">
@@ -6954,7 +6954,7 @@
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D28" s="2">
@@ -6968,7 +6968,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D29" s="2">
@@ -6982,7 +6982,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D30" s="2">
@@ -6996,7 +6996,7 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D31" s="2">
@@ -7010,7 +7010,7 @@
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D32" s="2">
@@ -7024,7 +7024,7 @@
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D33" s="2">
@@ -7038,7 +7038,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D34" s="2">
@@ -7052,7 +7052,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D35" s="2">
@@ -7066,7 +7066,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D36" s="2">
@@ -7080,7 +7080,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D37" s="2">
@@ -7094,7 +7094,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D38" s="2">
@@ -7105,7 +7105,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D39" s="2">
@@ -7119,7 +7119,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D40" s="2">
@@ -7133,7 +7133,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D41" s="2">
@@ -7144,7 +7144,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D42" s="2">
@@ -7155,7 +7155,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D43" s="2">
@@ -7166,7 +7166,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D44" s="2">
@@ -7177,7 +7177,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D45" s="2">
@@ -7188,7 +7188,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D46" s="2">
@@ -7202,7 +7202,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D47" s="2">
@@ -7213,7 +7213,7 @@
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D48" s="2">
@@ -7224,7 +7224,7 @@
       <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D49" s="2">
@@ -7235,7 +7235,7 @@
       <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43857.854166666664</v>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D51" s="2">
@@ -7260,7 +7260,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D52" s="2">
@@ -7274,7 +7274,7 @@
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43857.854166666664</v>
       </c>
       <c r="D53" s="2">
@@ -7298,7 +7298,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -7323,7 +7323,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D2" s="2">
@@ -7343,7 +7343,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D3" s="2">
@@ -7360,7 +7360,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D4" s="2">
@@ -7377,7 +7377,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D5" s="2">
@@ -7394,7 +7394,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D6" s="2">
@@ -7408,7 +7408,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D7" s="2">
@@ -7422,7 +7422,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D8" s="2">
@@ -7442,7 +7442,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D9" s="2">
@@ -7456,7 +7456,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D10" s="2">
@@ -7473,7 +7473,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D11" s="2">
@@ -7487,7 +7487,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D12" s="2">
@@ -7501,7 +7501,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D13" s="2">
@@ -7515,7 +7515,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D14" s="2">
@@ -7535,7 +7535,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D15" s="2">
@@ -7552,7 +7552,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D16" s="2">
@@ -7566,7 +7566,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D17" s="2">
@@ -7580,7 +7580,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D18" s="2">
@@ -7597,7 +7597,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D19" s="2">
@@ -7611,7 +7611,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D20" s="2">
@@ -7625,7 +7625,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D21" s="2">
@@ -7639,7 +7639,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D22" s="2">
@@ -7656,7 +7656,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D23" s="2">
@@ -7673,7 +7673,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D24" s="2">
@@ -7687,7 +7687,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D25" s="2">
@@ -7701,7 +7701,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D26" s="2">
@@ -7715,7 +7715,7 @@
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D27" s="2">
@@ -7729,7 +7729,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D28" s="2">
@@ -7743,7 +7743,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D29" s="2">
@@ -7757,7 +7757,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D30" s="2">
@@ -7771,7 +7771,7 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D31" s="2">
@@ -7785,7 +7785,7 @@
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D32" s="2">
@@ -7799,7 +7799,7 @@
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D33" s="2">
@@ -7813,7 +7813,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D34" s="2">
@@ -7827,7 +7827,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D35" s="2">
@@ -7841,7 +7841,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D36" s="2">
@@ -7855,7 +7855,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D37" s="2">
@@ -7869,7 +7869,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D38" s="2">
@@ -7880,7 +7880,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D39" s="2">
@@ -7894,7 +7894,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D40" s="2">
@@ -7908,7 +7908,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D41" s="2">
@@ -7919,7 +7919,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D42" s="2">
@@ -7930,7 +7930,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D43" s="2">
@@ -7941,7 +7941,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D44" s="2">
@@ -7952,7 +7952,7 @@
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D45" s="2">
@@ -7963,7 +7963,7 @@
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D46" s="2">
@@ -7977,7 +7977,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D47" s="2">
@@ -7988,7 +7988,7 @@
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D48" s="2">
@@ -7999,7 +7999,7 @@
       <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D49" s="2">
@@ -8010,7 +8010,7 @@
       <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D50" s="2">
@@ -8024,7 +8024,7 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D51" s="2">
@@ -8038,7 +8038,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43857.791666666664</v>
       </c>
       <c r="D52" s="2">
@@ -8065,7 +8065,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -9738,7 +9738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -10357,7 +10357,7 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="2">
@@ -10468,7 +10468,7 @@
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2">
@@ -10724,7 +10724,7 @@
       <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="2">
@@ -13849,7 +13849,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -13874,7 +13874,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D2" s="2">
@@ -13894,7 +13894,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D3" s="2">
@@ -13911,7 +13911,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D4" s="2">
@@ -13928,7 +13928,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D5" s="2">
@@ -13945,7 +13945,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D6" s="2">
@@ -13959,7 +13959,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D7" s="2">
@@ -13973,7 +13973,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D8" s="2">
@@ -13987,7 +13987,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D9" s="2">
@@ -14001,7 +14001,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D10" s="2">
@@ -14018,7 +14018,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D11" s="2">
@@ -14032,7 +14032,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D12" s="2">
@@ -14052,7 +14052,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D13" s="2">
@@ -14066,7 +14066,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D14" s="2">
@@ -14083,7 +14083,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D15" s="2">
@@ -14097,7 +14097,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D16" s="2">
@@ -14111,7 +14111,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D17" s="2">
@@ -14125,7 +14125,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D18" s="2">
@@ -14139,7 +14139,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D19" s="2">
@@ -14153,7 +14153,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D20" s="2">
@@ -14170,7 +14170,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D21" s="2">
@@ -14184,7 +14184,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D22" s="2">
@@ -14201,7 +14201,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D23" s="2">
@@ -14215,7 +14215,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D24" s="2">
@@ -14229,7 +14229,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D25" s="2">
@@ -14243,7 +14243,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D26" s="2">
@@ -14257,7 +14257,7 @@
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D27" s="2">
@@ -14271,7 +14271,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D28" s="2">
@@ -14285,7 +14285,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D29" s="2">
@@ -14299,7 +14299,7 @@
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D30" s="2">
@@ -14313,7 +14313,7 @@
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D31" s="2">
@@ -14327,7 +14327,7 @@
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D32" s="2">
@@ -14341,7 +14341,7 @@
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D33" s="2">
@@ -14355,7 +14355,7 @@
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D34" s="2">
@@ -14369,7 +14369,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D35" s="2">
@@ -14383,7 +14383,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D36" s="2">
@@ -14397,7 +14397,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D37" s="2">
@@ -14411,7 +14411,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D38" s="2">
@@ -14422,7 +14422,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D39" s="2">
@@ -14436,7 +14436,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D40" s="2">
@@ -14450,7 +14450,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D41" s="2">
@@ -14461,7 +14461,7 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D42" s="2">
@@ -14472,7 +14472,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D43" s="2">
@@ -14483,7 +14483,7 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D44" s="2">
@@ -14494,7 +14494,7 @@
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D45" s="2">
@@ -14505,7 +14505,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D46" s="2">
@@ -14516,7 +14516,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D47" s="2">
@@ -14530,7 +14530,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43856.958333333336</v>
       </c>
       <c r="D48" s="2">
@@ -14557,7 +14557,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -16228,7 +16228,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -17870,7 +17870,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -19506,7 +19506,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -21139,7 +21139,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>65</v>
@@ -21760,17 +21760,17 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>43854.666666666664</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>2.0</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
@@ -22750,7 +22750,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -24313,7 +24313,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -24331,7 +24331,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -24341,7 +24341,7 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="15">
         <v>43853.5</v>
       </c>
       <c r="D2" s="8">
@@ -24358,7 +24358,7 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <v>43853.5</v>
       </c>
       <c r="D3" s="8">
@@ -24372,7 +24372,7 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="15">
         <v>43853.5</v>
       </c>
       <c r="D4" s="8">
@@ -24386,7 +24386,7 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="15">
         <v>43853.5</v>
       </c>
       <c r="D5" s="8">
@@ -24403,7 +24403,7 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="15">
         <v>43853.5</v>
       </c>
       <c r="D6" s="8">
@@ -24417,7 +24417,7 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="15">
         <v>43853.5</v>
       </c>
       <c r="D7" s="8">
@@ -24437,7 +24437,7 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="15">
         <v>43853.5</v>
       </c>
       <c r="D8" s="8">
@@ -24451,7 +24451,7 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="15">
         <v>43853.5</v>
       </c>
       <c r="D9" s="8">
@@ -24465,7 +24465,7 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="15">
         <v>43853.5</v>
       </c>
       <c r="D10" s="8">
@@ -24482,7 +24482,7 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="15">
         <v>43853.5</v>
       </c>
       <c r="D11" s="8">
@@ -24499,7 +24499,7 @@
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="15">
         <v>43853.5</v>
       </c>
       <c r="D12" s="8">
@@ -24513,7 +24513,7 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="15">
         <v>43853.5</v>
       </c>
       <c r="D13" s="8">
@@ -24527,7 +24527,7 @@
       <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="15">
         <v>43853.5</v>
       </c>
       <c r="D14" s="8">
@@ -24544,7 +24544,7 @@
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="15">
         <v>43853.5</v>
       </c>
       <c r="D15" s="8">
@@ -24564,7 +24564,7 @@
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="15">
         <v>43853.5</v>
       </c>
       <c r="D16" s="8">
@@ -24578,7 +24578,7 @@
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="15">
         <v>43853.5</v>
       </c>
       <c r="E17" s="8">
@@ -24592,7 +24592,7 @@
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="15">
         <v>43853.5</v>
       </c>
       <c r="D18" s="8">
@@ -24606,7 +24606,7 @@
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="15">
         <v>43853.5</v>
       </c>
       <c r="D19" s="8">
@@ -24620,7 +24620,7 @@
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="15">
         <v>43853.5</v>
       </c>
       <c r="D20" s="8">
@@ -24634,7 +24634,7 @@
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="15">
         <v>43853.5</v>
       </c>
       <c r="D21" s="8">
@@ -24648,7 +24648,7 @@
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="15">
         <v>43853.5</v>
       </c>
       <c r="D22" s="8">
@@ -24662,7 +24662,7 @@
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="15">
         <v>43853.5</v>
       </c>
       <c r="D23" s="8">
@@ -24676,7 +24676,7 @@
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="15">
         <v>43853.5</v>
       </c>
     </row>
@@ -24687,7 +24687,7 @@
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="15">
         <v>43853.5</v>
       </c>
       <c r="D25" s="8">
@@ -24704,7 +24704,7 @@
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="15">
         <v>43853.5</v>
       </c>
       <c r="D26" s="8">
@@ -24721,7 +24721,7 @@
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="15">
         <v>43853.5</v>
       </c>
       <c r="D27" s="8">
@@ -24738,7 +24738,7 @@
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="15">
         <v>43853.5</v>
       </c>
       <c r="D28" s="8">
@@ -24752,7 +24752,7 @@
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="15">
         <v>43853.5</v>
       </c>
       <c r="D29" s="8">
@@ -24769,7 +24769,7 @@
       <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="15">
         <v>43853.5</v>
       </c>
       <c r="D30" s="8">
@@ -24783,7 +24783,7 @@
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="15">
         <v>43853.5</v>
       </c>
       <c r="D31" s="8">
@@ -24797,7 +24797,7 @@
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="15">
         <v>43853.5</v>
       </c>
     </row>
@@ -24808,7 +24808,7 @@
       <c r="B33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="15">
         <v>43853.5</v>
       </c>
       <c r="D33" s="8">
@@ -24822,7 +24822,7 @@
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="15">
         <v>43853.5</v>
       </c>
       <c r="D34" s="8">
@@ -24836,7 +24836,7 @@
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="15">
         <v>43853.5</v>
       </c>
       <c r="D35" s="8">
@@ -24850,7 +24850,7 @@
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="15">
         <v>43853.5</v>
       </c>
       <c r="D36" s="8">
@@ -24861,7 +24861,7 @@
       <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="15">
         <v>43853.5</v>
       </c>
       <c r="D37" s="8">
@@ -24872,7 +24872,7 @@
       <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="15">
         <v>43853.5</v>
       </c>
       <c r="D38" s="8">
@@ -24883,7 +24883,7 @@
       <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="15">
         <v>43853.5</v>
       </c>
       <c r="D39" s="8">
@@ -24894,7 +24894,7 @@
       <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="15">
         <v>43853.5</v>
       </c>
       <c r="D40" s="8">
@@ -24905,7 +24905,7 @@
       <c r="B41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="15">
         <v>43853.5</v>
       </c>
       <c r="E41" s="8">
@@ -24916,7 +24916,7 @@
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="15">
         <v>43853.5</v>
       </c>
       <c r="E42" s="8">
@@ -24927,7 +24927,7 @@
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="15">
         <v>43853.5</v>
       </c>
       <c r="D43" s="8">
@@ -24938,7 +24938,7 @@
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="15">
         <v>43853.5</v>
       </c>
       <c r="E44" s="8">
@@ -24947,9 +24947,9 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="11">
+        <v>93</v>
+      </c>
+      <c r="C45" s="15">
         <v>43853.5</v>
       </c>
       <c r="E45" s="8">
@@ -24958,9 +24958,9 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="11">
+        <v>94</v>
+      </c>
+      <c r="C46" s="15">
         <v>43853.5</v>
       </c>
       <c r="E46" s="8">
@@ -24969,9 +24969,9 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="11">
+        <v>95</v>
+      </c>
+      <c r="C47" s="15">
         <v>43853.5</v>
       </c>
       <c r="E47" s="8">
@@ -25953,10 +25953,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -25973,7 +25973,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9">
         <v>43852.5</v>
@@ -25990,7 +25990,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="9">
         <v>43852.5</v>
@@ -26004,7 +26004,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="9">
         <v>43852.5</v>
@@ -26018,7 +26018,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9">
         <v>43852.5</v>
@@ -26032,7 +26032,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9">
         <v>43852.5</v>
@@ -26043,7 +26043,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9">
         <v>43852.5</v>
@@ -26060,7 +26060,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="9">
         <v>43852.5</v>
@@ -26077,7 +26077,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9">
         <v>43852.5</v>
@@ -26091,7 +26091,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9">
         <v>43852.5</v>
@@ -26105,7 +26105,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9">
         <v>43852.5</v>
@@ -26119,7 +26119,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="9">
         <v>43852.5</v>
@@ -26133,7 +26133,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9">
         <v>43852.5</v>
@@ -26147,7 +26147,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="9">
         <v>43852.5</v>
@@ -26161,7 +26161,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="9">
         <v>43852.5</v>
@@ -26175,7 +26175,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9">
         <v>43852.5</v>
@@ -26189,7 +26189,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="9">
         <v>43852.5</v>
@@ -26200,7 +26200,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="9">
         <v>43852.5</v>
@@ -26214,7 +26214,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9">
         <v>43852.5</v>
@@ -26228,7 +26228,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="9">
         <v>43852.5</v>
@@ -26242,7 +26242,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9">
         <v>43852.5</v>
@@ -26256,7 +26256,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="9">
         <v>43852.5</v>
@@ -26270,7 +26270,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="9">
         <v>43852.5</v>
@@ -26284,7 +26284,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9">
         <v>43852.5</v>
@@ -26295,7 +26295,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="9">
         <v>43852.5</v>
@@ -26306,7 +26306,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9">
         <v>43852.5</v>
@@ -26320,7 +26320,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" s="9">
         <v>43852.5</v>
@@ -26337,7 +26337,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C28" s="9">
         <v>43852.5</v>
@@ -26351,7 +26351,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="9">
         <v>43852.5</v>
@@ -26368,7 +26368,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" s="9">
         <v>43852.5</v>
@@ -26382,7 +26382,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="9">
         <v>43852.5</v>
@@ -26396,7 +26396,7 @@
         <v>69</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="9">
         <v>43852.5</v>
@@ -26421,7 +26421,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" s="9">
         <v>43852.5</v>
@@ -26432,7 +26432,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C35" s="9">
         <v>43852.5</v>
@@ -26446,7 +26446,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="9">
         <v>43852.5</v>
@@ -27471,13 +27471,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -27491,7 +27491,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="18">
         <v>43851.0</v>
@@ -27508,7 +27508,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="18">
         <v>43851.0</v>
@@ -27523,7 +27523,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="18">
         <v>43851.0</v>
@@ -27538,7 +27538,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="18">
         <v>43851.0</v>
@@ -27553,7 +27553,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="18">
         <v>43851.0</v>
@@ -27568,7 +27568,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="18">
         <v>43851.0</v>
@@ -27585,7 +27585,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="18">
         <v>43851.0</v>
@@ -27600,7 +27600,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="18">
         <v>43851.0</v>
@@ -27615,7 +27615,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="18">
         <v>43851.0</v>
@@ -27630,7 +27630,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="18">
         <v>43851.0</v>
@@ -27645,7 +27645,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="18">
         <v>43851.0</v>
@@ -27662,7 +27662,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="18">
         <v>43851.0</v>
@@ -27677,7 +27677,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="18">
         <v>43851.0</v>
@@ -27692,7 +27692,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="18">
         <v>43851.0</v>
@@ -27707,7 +27707,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="18">
         <v>43851.0</v>
@@ -27724,7 +27724,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="18">
         <v>43851.0</v>
@@ -27739,7 +27739,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="18">
         <v>43851.0</v>
@@ -27756,7 +27756,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="18">
         <v>43851.0</v>
@@ -27771,7 +27771,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="18">
         <v>43851.0</v>
@@ -27786,7 +27786,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" s="18">
         <v>43851.0</v>
@@ -27801,7 +27801,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="18">
         <v>43851.0</v>
@@ -27816,7 +27816,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="18">
         <v>43851.0</v>
@@ -27831,7 +27831,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="18">
         <v>43851.0</v>
@@ -30081,7 +30081,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -30700,7 +30700,7 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="2">
@@ -30811,7 +30811,7 @@
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2">
@@ -31067,7 +31067,7 @@
       <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="2">
@@ -34195,7 +34195,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -34220,7 +34220,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43862.98125</v>
       </c>
       <c r="D2" s="2">
@@ -34240,7 +34240,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43863.092361111114</v>
       </c>
       <c r="D3" s="2">
@@ -34260,7 +34260,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43863.05763888889</v>
       </c>
       <c r="D4" s="2">
@@ -34280,7 +34280,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43863.03680555556</v>
       </c>
       <c r="D5" s="2">
@@ -34300,7 +34300,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43863.07847222222</v>
       </c>
       <c r="D6" s="2">
@@ -34320,7 +34320,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43863.06458333333</v>
       </c>
       <c r="D7" s="2">
@@ -34340,7 +34340,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43863.05763888889</v>
       </c>
       <c r="D8" s="2">
@@ -34360,7 +34360,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43862.98819444444</v>
       </c>
       <c r="D9" s="2">
@@ -34380,7 +34380,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43863.05069444444</v>
       </c>
       <c r="D10" s="2">
@@ -34400,7 +34400,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D11" s="2">
@@ -34420,7 +34420,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D12" s="2">
@@ -34440,7 +34440,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43863.12847222222</v>
       </c>
       <c r="D13" s="2">
@@ -34460,7 +34460,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43863.01597222222</v>
       </c>
       <c r="D14" s="2">
@@ -34480,7 +34480,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43863.154861111114</v>
       </c>
       <c r="D15" s="2">
@@ -34500,7 +34500,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43863.14097222222</v>
       </c>
       <c r="D16" s="2">
@@ -34520,7 +34520,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43863.01597222222</v>
       </c>
       <c r="D17" s="2">
@@ -34540,7 +34540,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43863.12013888889</v>
       </c>
       <c r="D18" s="2">
@@ -34560,7 +34560,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43863.14097222222</v>
       </c>
       <c r="D19" s="2">
@@ -34580,7 +34580,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43862.66180555556</v>
       </c>
       <c r="D20" s="2">
@@ -34600,7 +34600,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43862.64097222222</v>
       </c>
       <c r="D21" s="2">
@@ -34620,7 +34620,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D22" s="2">
@@ -34640,7 +34640,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43862.98125</v>
       </c>
       <c r="D23" s="2">
@@ -34660,7 +34660,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43863.08541666667</v>
       </c>
       <c r="D24" s="2">
@@ -34680,7 +34680,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43862.654861111114</v>
       </c>
       <c r="D25" s="2">
@@ -34700,7 +34700,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D26" s="2">
@@ -34720,7 +34720,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43863.07152777778</v>
       </c>
       <c r="D27" s="2">
@@ -34740,7 +34740,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43863.154861111114</v>
       </c>
       <c r="D28" s="2">
@@ -34760,7 +34760,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43863.10625</v>
       </c>
       <c r="D29" s="2">
@@ -34780,7 +34780,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43863.029861111114</v>
       </c>
       <c r="D30" s="2">
@@ -34797,7 +34797,7 @@
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43862.78680555556</v>
       </c>
       <c r="D31" s="2">
@@ -34814,7 +34814,7 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43861.44236111111</v>
       </c>
       <c r="D32" s="2">
@@ -34831,7 +34831,7 @@
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D33" s="2">
@@ -34848,7 +34848,7 @@
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43863.09930555556</v>
       </c>
       <c r="D34" s="2">
@@ -34868,7 +34868,7 @@
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43863.04375</v>
       </c>
       <c r="D35" s="2">
@@ -34888,7 +34888,7 @@
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43861.63888888889</v>
       </c>
       <c r="D36" s="2">
@@ -34908,7 +34908,7 @@
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D37" s="2">
@@ -34925,7 +34925,7 @@
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43862.98125</v>
       </c>
       <c r="D38" s="2">
@@ -34942,7 +34942,7 @@
       <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D39" s="2">
@@ -34962,7 +34962,7 @@
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D40" s="2">
@@ -34979,7 +34979,7 @@
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D41" s="2">
@@ -34996,7 +34996,7 @@
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43862.31805555556</v>
       </c>
       <c r="D42" s="2">
@@ -35016,7 +35016,7 @@
       <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D43" s="2">
@@ -35036,7 +35036,7 @@
       <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D44" s="2">
@@ -35053,7 +35053,7 @@
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D45" s="2">
@@ -35073,7 +35073,7 @@
       <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D46" s="2">
@@ -35093,7 +35093,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D47" s="2">
@@ -35110,7 +35110,7 @@
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D48" s="2">
@@ -35127,7 +35127,7 @@
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43863.14791666667</v>
       </c>
       <c r="D49" s="2">
@@ -35144,7 +35144,7 @@
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43861.67569444444</v>
       </c>
       <c r="D50" s="2">
@@ -35161,7 +35161,7 @@
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D51" s="2">
@@ -35181,7 +35181,7 @@
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D52" s="2">
@@ -35201,7 +35201,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D53" s="2">
@@ -35218,7 +35218,7 @@
       <c r="B54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D54" s="2">
@@ -35238,7 +35238,7 @@
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D55" s="2">
@@ -35255,7 +35255,7 @@
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D56" s="2">
@@ -35272,7 +35272,7 @@
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D57" s="2">
@@ -35292,7 +35292,7 @@
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D58" s="2">
@@ -35309,7 +35309,7 @@
       <c r="B59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D59" s="2">
@@ -35326,7 +35326,7 @@
       <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43862.98819444444</v>
       </c>
       <c r="D60" s="2">
@@ -35343,7 +35343,7 @@
       <c r="B61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D61" s="2">
@@ -35360,7 +35360,7 @@
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>43862.092361111114</v>
       </c>
       <c r="D62" s="2">
@@ -35380,7 +35380,7 @@
       <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D63" s="2">
@@ -35400,7 +35400,7 @@
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D64" s="2">
@@ -35420,7 +35420,7 @@
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D65" s="2">
@@ -35440,7 +35440,7 @@
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D66" s="2">
@@ -35460,7 +35460,7 @@
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D67" s="2">
@@ -35480,7 +35480,7 @@
       <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D68" s="2">
@@ -35510,7 +35510,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -35538,7 +35538,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43862.49513888889</v>
       </c>
       <c r="D2" s="2">
@@ -35558,7 +35558,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43862.45347222222</v>
       </c>
       <c r="D3" s="2">
@@ -35578,7 +35578,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43862.59930555556</v>
       </c>
       <c r="D4" s="2">
@@ -35598,7 +35598,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D5" s="2">
@@ -35618,7 +35618,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43862.46041666667</v>
       </c>
       <c r="D6" s="2">
@@ -35638,7 +35638,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43862.56458333333</v>
       </c>
       <c r="D7" s="2">
@@ -35658,7 +35658,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D8" s="2">
@@ -35678,7 +35678,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43862.36319444444</v>
       </c>
       <c r="D9" s="2">
@@ -35698,7 +35698,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D10" s="2">
@@ -35718,7 +35718,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43862.32708333333</v>
       </c>
       <c r="D11" s="2">
@@ -35738,7 +35738,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43862.58541666667</v>
       </c>
       <c r="D12" s="2">
@@ -35758,7 +35758,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43862.25347222222</v>
       </c>
       <c r="D13" s="2">
@@ -35778,7 +35778,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43862.38680555556</v>
       </c>
       <c r="D14" s="2">
@@ -35798,7 +35798,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D15" s="2">
@@ -35818,7 +35818,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D16" s="2">
@@ -35838,7 +35838,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D17" s="2">
@@ -35858,7 +35858,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D18" s="2">
@@ -35878,7 +35878,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43862.66180555556</v>
       </c>
       <c r="D19" s="2">
@@ -35898,7 +35898,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43862.43958333333</v>
       </c>
       <c r="D20" s="2">
@@ -35918,7 +35918,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43862.64097222222</v>
       </c>
       <c r="D21" s="2">
@@ -35938,7 +35938,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43862.36319444444</v>
       </c>
       <c r="D22" s="2">
@@ -35958,7 +35958,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D23" s="2">
@@ -35978,7 +35978,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43862.654861111114</v>
       </c>
       <c r="D24" s="2">
@@ -35998,7 +35998,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43862.654861111114</v>
       </c>
       <c r="D25" s="2">
@@ -36018,7 +36018,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43861.63888888889</v>
       </c>
       <c r="D26" s="2">
@@ -36038,7 +36038,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43862.092361111114</v>
       </c>
       <c r="D27" s="2">
@@ -36058,7 +36058,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D28" s="2">
@@ -36076,7 +36076,7 @@
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43862.78680555556</v>
       </c>
       <c r="D29" s="2">
@@ -36094,7 +36094,7 @@
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43861.44236111111</v>
       </c>
       <c r="D30" s="2">
@@ -36114,7 +36114,7 @@
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D31" s="2">
@@ -36134,7 +36134,7 @@
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D32" s="2">
@@ -36152,7 +36152,7 @@
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D33" s="2">
@@ -36172,7 +36172,7 @@
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D34" s="2">
@@ -36190,7 +36190,7 @@
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43862.44652777778</v>
       </c>
       <c r="D35" s="2">
@@ -36210,7 +36210,7 @@
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43861.63888888889</v>
       </c>
       <c r="D36" s="2">
@@ -36230,7 +36230,7 @@
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43862.23402777778</v>
       </c>
       <c r="D37" s="2">
@@ -36248,7 +36248,7 @@
       <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D38" s="2">
@@ -36266,7 +36266,7 @@
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43862.77291666667</v>
       </c>
       <c r="D39" s="2">
@@ -36286,7 +36286,7 @@
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D40" s="2">
@@ -36304,7 +36304,7 @@
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D41" s="2">
@@ -36322,7 +36322,7 @@
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43862.31805555556</v>
       </c>
       <c r="D42" s="2">
@@ -36342,7 +36342,7 @@
       <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D43" s="2">
@@ -36362,7 +36362,7 @@
       <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D44" s="2">
@@ -36380,7 +36380,7 @@
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D45" s="2">
@@ -36400,7 +36400,7 @@
       <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D46" s="2">
@@ -36420,7 +36420,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D47" s="2">
@@ -36437,7 +36437,7 @@
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D48" s="2">
@@ -36454,7 +36454,7 @@
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43861.67569444444</v>
       </c>
       <c r="D49" s="2">
@@ -36471,7 +36471,7 @@
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D50" s="2">
@@ -36491,7 +36491,7 @@
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D51" s="2">
@@ -36511,7 +36511,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D52" s="2">
@@ -36528,7 +36528,7 @@
       <c r="B53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D53" s="2">
@@ -36548,7 +36548,7 @@
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43862.75833333333</v>
       </c>
       <c r="D54" s="2">
@@ -36565,7 +36565,7 @@
       <c r="B55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D55" s="2">
@@ -36582,7 +36582,7 @@
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D56" s="2">
@@ -36602,7 +36602,7 @@
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43862.07777777778</v>
       </c>
       <c r="D57" s="2">
@@ -36619,7 +36619,7 @@
       <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D58" s="2">
@@ -36636,7 +36636,7 @@
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43862.73819444444</v>
       </c>
       <c r="D59" s="2">
@@ -36653,7 +36653,7 @@
       <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43862.092361111114</v>
       </c>
       <c r="D60" s="2">
@@ -36671,7 +36671,7 @@
       <c r="B61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>43861.34375</v>
       </c>
       <c r="D61" s="2">
@@ -36689,7 +36689,7 @@
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>43862.092361111114</v>
       </c>
       <c r="D62" s="2">
@@ -36709,7 +36709,7 @@
       <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D63" s="2">
@@ -36729,7 +36729,7 @@
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D64" s="2">
@@ -36749,7 +36749,7 @@
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D65" s="2">
@@ -36769,7 +36769,7 @@
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>43862.82847222222</v>
       </c>
       <c r="D66" s="2">
@@ -36789,7 +36789,7 @@
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D67" s="2">
@@ -36809,7 +36809,7 @@
       <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>43862.82152777778</v>
       </c>
       <c r="D68" s="2">
@@ -36839,7 +36839,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -36864,7 +36864,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D2" s="2">
@@ -36884,7 +36884,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D3" s="2">
@@ -36901,7 +36901,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D4" s="2">
@@ -36918,7 +36918,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D5" s="2">
@@ -36938,7 +36938,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D6" s="2">
@@ -36955,7 +36955,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D7" s="2">
@@ -36972,7 +36972,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D8" s="2">
@@ -36989,7 +36989,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D9" s="2">
@@ -37009,7 +37009,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D10" s="2">
@@ -37029,7 +37029,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D11" s="2">
@@ -37046,7 +37046,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D12" s="2">
@@ -37063,7 +37063,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D13" s="2">
@@ -37083,7 +37083,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D14" s="2">
@@ -37103,7 +37103,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D15" s="2">
@@ -37117,7 +37117,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D16" s="2">
@@ -37131,7 +37131,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D17" s="2">
@@ -37148,7 +37148,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D18" s="2">
@@ -37165,7 +37165,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D19" s="2">
@@ -37182,7 +37182,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D20" s="2">
@@ -37202,7 +37202,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D21" s="2">
@@ -37219,7 +37219,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D22" s="2">
@@ -37239,7 +37239,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D23" s="2">
@@ -37256,7 +37256,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D24" s="2">
@@ -37270,7 +37270,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D25" s="2">
@@ -37284,7 +37284,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D26" s="2">
@@ -37301,7 +37301,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D27" s="2">
@@ -37315,7 +37315,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D28" s="2">
@@ -37332,7 +37332,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D29" s="2">
@@ -37346,7 +37346,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D30" s="2">
@@ -37363,7 +37363,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D31" s="2">
@@ -37377,7 +37377,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D32" s="2">
@@ -37391,7 +37391,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D33" s="2">
@@ -37405,7 +37405,7 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D34" s="2">
@@ -37419,7 +37419,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D35" s="2">
@@ -37433,7 +37433,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D36" s="2">
@@ -37447,7 +37447,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D37" s="2">
@@ -37461,7 +37461,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D38" s="2">
@@ -37475,7 +37475,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D39" s="2">
@@ -37486,7 +37486,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D40" s="2">
@@ -37500,7 +37500,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D41" s="2">
@@ -37514,7 +37514,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D42" s="2">
@@ -37525,7 +37525,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D43" s="2">
@@ -37536,7 +37536,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D44" s="2">
@@ -37550,7 +37550,7 @@
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D45" s="2">
@@ -37561,7 +37561,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D46" s="2">
@@ -37572,7 +37572,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D47" s="2">
@@ -37586,7 +37586,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D48" s="2">
@@ -37600,7 +37600,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D49" s="2">
@@ -37611,7 +37611,7 @@
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D50" s="2">
@@ -37622,7 +37622,7 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D51" s="2">
@@ -37639,7 +37639,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D52" s="2">
@@ -37656,7 +37656,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D53" s="2">
@@ -37670,7 +37670,7 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D54" s="2">
@@ -37684,7 +37684,7 @@
       <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D55" s="2">
@@ -37698,7 +37698,7 @@
       <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D56" s="2">
@@ -37709,7 +37709,7 @@
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D57" s="2">
@@ -37720,7 +37720,7 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D58" s="2">
@@ -37731,7 +37731,7 @@
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D59" s="2">
@@ -37742,7 +37742,7 @@
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D60" s="2">
@@ -37753,7 +37753,7 @@
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D61" s="2">
@@ -37764,7 +37764,7 @@
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D62" s="2">
@@ -37775,7 +37775,7 @@
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D63" s="2">
@@ -37786,7 +37786,7 @@
       <c r="B64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D64" s="2">
@@ -37797,7 +37797,7 @@
       <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>43862.416666666664</v>
       </c>
       <c r="D65" s="2">
@@ -37821,7 +37821,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -37846,7 +37846,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D2" s="2">
@@ -37866,7 +37866,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D3" s="2">
@@ -37883,7 +37883,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D4" s="2">
@@ -37900,7 +37900,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D5" s="2">
@@ -37920,7 +37920,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D6" s="2">
@@ -37937,7 +37937,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D7" s="2">
@@ -37954,7 +37954,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D8" s="2">
@@ -37974,7 +37974,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D9" s="2">
@@ -37991,7 +37991,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D10" s="2">
@@ -38008,7 +38008,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D11" s="2">
@@ -38028,7 +38028,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D12" s="2">
@@ -38045,7 +38045,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D13" s="2">
@@ -38065,7 +38065,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D14" s="2">
@@ -38085,7 +38085,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D15" s="2">
@@ -38099,7 +38099,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D16" s="2">
@@ -38116,7 +38116,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D17" s="2">
@@ -38133,7 +38133,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D18" s="2">
@@ -38147,7 +38147,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D19" s="2">
@@ -38164,7 +38164,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D20" s="2">
@@ -38181,7 +38181,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D21" s="2">
@@ -38198,7 +38198,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D22" s="2">
@@ -38218,7 +38218,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D23" s="2">
@@ -38235,7 +38235,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D24" s="2">
@@ -38249,7 +38249,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D25" s="2">
@@ -38263,7 +38263,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D26" s="2">
@@ -38280,7 +38280,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D27" s="2">
@@ -38297,7 +38297,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D28" s="2">
@@ -38311,7 +38311,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D29" s="2">
@@ -38325,7 +38325,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D30" s="2">
@@ -38342,7 +38342,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D31" s="2">
@@ -38356,7 +38356,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D32" s="2">
@@ -38370,7 +38370,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D33" s="2">
@@ -38384,7 +38384,7 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D34" s="2">
@@ -38398,7 +38398,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D35" s="2">
@@ -38412,7 +38412,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D36" s="2">
@@ -38426,7 +38426,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D37" s="2">
@@ -38440,7 +38440,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D38" s="2">
@@ -38454,7 +38454,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D39" s="2">
@@ -38465,7 +38465,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D40" s="2">
@@ -38479,7 +38479,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D41" s="2">
@@ -38493,7 +38493,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D42" s="2">
@@ -38504,7 +38504,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D43" s="2">
@@ -38515,7 +38515,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D44" s="2">
@@ -38526,7 +38526,7 @@
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D45" s="2">
@@ -38537,7 +38537,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D46" s="2">
@@ -38548,7 +38548,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D47" s="2">
@@ -38562,7 +38562,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D48" s="2">
@@ -38576,7 +38576,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D49" s="2">
@@ -38587,7 +38587,7 @@
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D50" s="2">
@@ -38598,7 +38598,7 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D51" s="2">
@@ -38612,7 +38612,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D52" s="2">
@@ -38629,7 +38629,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D53" s="2">
@@ -38643,7 +38643,7 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D54" s="2">
@@ -38657,7 +38657,7 @@
       <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D55" s="2">
@@ -38668,7 +38668,7 @@
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D56" s="2">
@@ -38679,7 +38679,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D57" s="2">
@@ -38690,7 +38690,7 @@
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D58" s="2">
@@ -38701,7 +38701,7 @@
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D59" s="2">
@@ -38712,7 +38712,7 @@
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D60" s="2">
@@ -38723,7 +38723,7 @@
       <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D61" s="2">
@@ -38734,7 +38734,7 @@
       <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D62" s="2">
@@ -38745,7 +38745,7 @@
       <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D63" s="2">
@@ -38756,7 +38756,7 @@
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>43861.791666666664</v>
       </c>
       <c r="D64" s="2">
@@ -38780,7 +38780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -38805,7 +38805,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D2" s="2">
@@ -38825,7 +38825,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D3" s="2">
@@ -38842,7 +38842,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D4" s="2">
@@ -38859,7 +38859,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D5" s="2">
@@ -38879,7 +38879,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D6" s="2">
@@ -38896,7 +38896,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D7" s="2">
@@ -38913,7 +38913,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D8" s="2">
@@ -38930,7 +38930,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D9" s="2">
@@ -38947,7 +38947,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D10" s="2">
@@ -38964,7 +38964,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D11" s="2">
@@ -38984,7 +38984,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D12" s="2">
@@ -39001,7 +39001,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D13" s="2">
@@ -39021,7 +39021,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D14" s="2">
@@ -39041,7 +39041,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D15" s="2">
@@ -39055,7 +39055,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D16" s="2">
@@ -39072,7 +39072,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D17" s="2">
@@ -39086,7 +39086,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D18" s="2">
@@ -39103,7 +39103,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D19" s="2">
@@ -39120,7 +39120,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D20" s="2">
@@ -39137,7 +39137,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D21" s="2">
@@ -39157,7 +39157,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D22" s="2">
@@ -39174,7 +39174,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D23" s="2">
@@ -39191,7 +39191,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D24" s="2">
@@ -39205,7 +39205,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D25" s="2">
@@ -39222,7 +39222,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D26" s="2">
@@ -39236,7 +39236,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D27" s="2">
@@ -39250,7 +39250,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D28" s="2">
@@ -39267,7 +39267,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D29" s="2">
@@ -39281,7 +39281,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D30" s="2">
@@ -39298,7 +39298,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D31" s="2">
@@ -39312,7 +39312,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D32" s="2">
@@ -39326,7 +39326,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D33" s="2">
@@ -39340,7 +39340,7 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D34" s="2">
@@ -39354,7 +39354,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D35" s="2">
@@ -39365,7 +39365,7 @@
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D36" s="2">
@@ -39379,7 +39379,7 @@
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D37" s="2">
@@ -39393,7 +39393,7 @@
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D38" s="2">
@@ -39404,7 +39404,7 @@
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D39" s="2">
@@ -39415,7 +39415,7 @@
       <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D40" s="2">
@@ -39426,7 +39426,7 @@
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D41" s="2">
@@ -39440,7 +39440,7 @@
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D42" s="2">
@@ -39454,7 +39454,7 @@
       <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D43" s="2">
@@ -39468,7 +39468,7 @@
       <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D44" s="2">
@@ -39482,7 +39482,7 @@
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D45" s="2">
@@ -39496,7 +39496,7 @@
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D46" s="2">
@@ -39510,7 +39510,7 @@
       <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43861.708333333336</v>
       </c>
       <c r="D47" s="2">
@@ -39521,7 +39521,7 @@
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D48" s="2">
@@ -39535,7 +39535,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D49" s="2">
@@ -39549,7 +39549,7 @@
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D50" s="2">
@@ -39560,7 +39560,7 @@
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D51" s="2">
@@ -39571,7 +39571,7 @@
       <c r="B52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D52" s="2">
@@ -39582,7 +39582,7 @@
       <c r="B53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D53" s="2">
@@ -39596,7 +39596,7 @@
       <c r="B54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D54" s="2">
@@ -39610,7 +39610,7 @@
       <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D55" s="2">
@@ -39621,7 +39621,7 @@
       <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D56" s="2">
@@ -39635,7 +39635,7 @@
       <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D57" s="2">
@@ -39646,7 +39646,7 @@
       <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D58" s="2">
@@ -39657,7 +39657,7 @@
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D59" s="2">
@@ -39668,7 +39668,7 @@
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D60" s="2">
@@ -39679,7 +39679,7 @@
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D61" s="2">
@@ -39690,7 +39690,7 @@
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D62" s="2">
@@ -39701,7 +39701,7 @@
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>43861.583333333336</v>
       </c>
       <c r="D63" s="2">
@@ -39725,7 +39725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -39750,7 +39750,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D2" s="2">
@@ -39770,7 +39770,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D3" s="2">
@@ -39787,7 +39787,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D4" s="2">
@@ -39804,7 +39804,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D5" s="2">
@@ -39824,7 +39824,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D6" s="2">
@@ -39841,7 +39841,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D7" s="2">
@@ -39858,7 +39858,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D8" s="2">
@@ -39875,7 +39875,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D9" s="2">
@@ -39892,7 +39892,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D10" s="2">
@@ -39909,7 +39909,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D11" s="2">
@@ -39929,7 +39929,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D12" s="2">
@@ -39946,7 +39946,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D13" s="2">
@@ -39966,7 +39966,7 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D14" s="2">
@@ -39986,7 +39986,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D15" s="2">
@@ -40000,7 +40000,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D16" s="2">
@@ -40017,7 +40017,7 @@
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D17" s="2">
@@ -40034,7 +40034,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D18" s="2">
@@ -40048,7 +40048,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D19" s="2">
@@ -40062,7 +40062,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D20" s="2">
@@ -40079,7 +40079,7 @@
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D21" s="2">
@@ -40099,7 +40099,7 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D22" s="2">
@@ -40116,7 +40116,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D23" s="2">
@@ -40133,7 +40133,7 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D24" s="2">
@@ -40147,7 +40147,7 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D25" s="2">
@@ -40161,7 +40161,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D26" s="2">
@@ -40178,7 +40178,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D27" s="2">
@@ -40192,7 +40192,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D28" s="2">
@@ -40206,7 +40206,7 @@
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D29" s="2">
@@ -40223,7 +40223,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D30" s="2">
@@ -40240,7 +40240,7 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D31" s="2">
@@ -40254,7 +40254,7 @@
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D32" s="2">
@@ -40268,7 +40268,7 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D33" s="2">
@@ -40282,7 +40282,7 @@
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D34" s="2">
@@ -40296,7 +40296,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D35" s="2">
@@ -40310,7 +40310,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D36" s="2">
@@ -40324,7 +40324,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D37" s="2">
@@ -40338,7 +40338,7 @@
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D38" s="2">
@@ -40352,7 +40352,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D39" s="2">
@@ -40363,7 +40363,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D40" s="2">
@@ -40377,7 +40377,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D41" s="2">
@@ -40391,7 +40391,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D42" s="2">
@@ -40402,7 +40402,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D43" s="2">
@@ -40413,7 +40413,7 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D44" s="2">
@@ -40424,7 +40424,7 @@
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D45" s="2">
@@ -40435,7 +40435,7 @@
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D46" s="2">
@@ -40446,7 +40446,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D47" s="2">
@@ -40460,7 +40460,7 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D48" s="2">
@@ -40474,7 +40474,7 @@
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D49" s="2">
@@ -40485,7 +40485,7 @@
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D50" s="2">
@@ -40496,7 +40496,7 @@
       <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D51" s="2">
@@ -40510,7 +40510,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D52" s="2">
@@ -40527,7 +40527,7 @@
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D53" s="2">
@@ -40541,7 +40541,7 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D54" s="2">
@@ -40555,7 +40555,7 @@
       <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D55" s="2">
@@ -40566,7 +40566,7 @@
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D56" s="2">
@@ -40577,7 +40577,7 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D57" s="2">
@@ -40588,7 +40588,7 @@
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D58" s="2">
@@ -40599,7 +40599,7 @@
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D59" s="2">
@@ -40610,7 +40610,7 @@
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>43860.895833333336</v>
       </c>
       <c r="D60" s="2">
